--- a/spearman_pvalue_matrix.xlsx
+++ b/spearman_pvalue_matrix.xlsx
@@ -476,26 +476,40 @@
           <t>TCSG</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8197</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>&lt;1e-323</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.3e-51</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.6e-14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.5e-31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.3e-5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8197</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.7e-63</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -504,26 +518,40 @@
           <t>YDEX</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0583</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.3e-51</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&lt;1e-323</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.3e-102</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.9e-182</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4e-102</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1.5e-28</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -532,26 +560,40 @@
           <t>VKCO</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.6e-14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7.3e-102</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&lt;1e-323</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.3e-220</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.2e-88</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4.2e-17</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -560,26 +602,40 @@
           <t>RTKM</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3.5e-31</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3.9e-182</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.3e-220</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>&lt;1e-323</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1e-76</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1.4e-6</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -588,26 +644,40 @@
           <t>USD_RUB</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0583</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5.3e-5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>&lt;1e-323</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9e-5</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5.1e-67</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -616,26 +686,40 @@
           <t>Brent</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.8197</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8048999999999999</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.8197</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.4e-102</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.2e-88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.1e-76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.9e-5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;1e-323</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.8049</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -644,26 +728,40 @@
           <t>BTC_RUB</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8048999999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.7e-63</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.5e-28</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.2e-17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.4e-6</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.1e-67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8049</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>&lt;1e-323</t>
+        </is>
       </c>
     </row>
   </sheetData>
